--- a/biology/Virologie/Kids/Kids.xlsx
+++ b/biology/Virologie/Kids/Kids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kids est un film américain réalisé par Larry Clark, sorti en 1995. Il s'agit de son premier long métrage montrant la vie d'adolescents new-yorkais, leurs désirs et comportements sexuels pendant l'apparition du sida dans le milieu des années 1990.
 La version originale du film fut classée NC-17 aux États-Unis, soit interdite aux moins de dix-sept ans. En France, le film est interdit aux moins de douze ans. De par ses thèmes pouvant choquer un certain public, concernant de jeunes adolescents, le film fut fortement controversé à sa sortie, malgré des critiques unanimes et enthousiastes. Il contient en effet de nombreux dialogues très crus ainsi que des scènes de viol, de violences physiques, de consommation de drogues (cannabis, alcool, tabac, gaz hilarant, kétamine) et de vols.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la scène inaugurale du film il y a un garçon, Telly (Leo Fitzpatrick), et une jeune fille âgée de douze ans : ils ont un rapport sexuel dans la chambre de cette dernière. Les parents absents, Telly qui est bien plus âgé que la jeune fille la persuade de faire l'amour quoiqu'elle soit toujours vierge et appréhende l'acte sexuel. Immédiatement après, Telly rejoint son meilleur ami Casper (Justin Pierce), puis ils discutent de l'expérience sexuelle que Telly vient d'avoir. Ce dernier exprime son penchant incontrôlable pour les jeunes filles vierges. Les deux garçons pénètrent alors dans une épicerie locale afin de dérober une bouteille de bière coupée à la liqueur de malt : tandis que Telly distrait le vendeur, Casper s'occupe du vol. Désireux de grignoter un morceau puis de trouver de la drogue, ils s'acheminent vers la maison de Paul, une sorte de squat dans lequel une clique de jeunes hommes discutent, fument, et se vantent de leurs prouesses sexuelles tout en assumant leur attitude désabusée à l'égard des relations non-protégées. Ils se targuent eux-mêmes de ne pas utiliser de préservatifs, ne croyant pas à l'épidémie de SIDA qui sévit depuis plusieurs années maintenant à New York. Au cours de l'échange, certains des garçons consomment de la marijuana en regardant des vidéos de skaters tandis qu'au même moment Casper inhale du gaz hilarant.
 Comme une scène en miroir, un groupe de jeunes filles discute au même moment de sexe à l'intérieur d'un appartement à l'autre bout de la ville. Leur attitude contredit manifestement les discours masculins précédemment exposés, notamment sur leur rapport à la fellation : elles affirment qu'elles détestent cela (« I hate sucking dick ! ») alors que Casper déclare que c'est là un passe-temps secret qu'elles ont et qu'elles adorent cela (« girls love to give head. It's like a secret pastime hobby for them »). Ruby (Rosario Dawson) et Jennie (Chloë Sevigny) abordent  à ce moment le fait qu'elles aient procédé au test du VIH à la demande de Ruby. Le test de Ruby est négatif, mais celui de Jennie se révèle positif au grand désarroi de la jeune fille qui souhaite aussitôt prévenir Telly, le seul garçon avec lequel elle ait eu des relations sexuelles jusqu'alors. Elle passe le reste de sa journée à tenter de le contacter.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Kids
 Réalisation : Larry Clark
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leo Fitzpatrick : Telly
 Sarah Henderson : Fille vierge 1
@@ -644,8 +662,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Musique
-Daniel Johnston - Casper
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Daniel Johnston - Casper
 Deluxx Folk Implosion - Daddy Never Understood
 The Folk Implosion - Nothing Gonna Stop
 The Folk Implosion - Jenny's Theme
@@ -657,9 +680,43 @@
 The Folk Implosion - Wet Stuff
 Lo-Down - Mad Fright Night
 The Folk Implosion - Raise The Bells
-Slint - Good Morning Captain
-Film
-Artifacts - Wrong Side of The Tracks
+Slint - Good Morning Captain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kids</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kids</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Artifacts - Wrong Side of The Tracks
 The Average White Band - I'm The One
 Beastie Boys - Sabrosa
 Beastie Boys - Pow
@@ -673,37 +730,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kids</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kids</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Commentaire</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains des acteurs ont connu une fin tragique comme le laissait présager le film. Ainsi, Justin Pierce, qui joue Casper, se suicide par pendaison en 2000 et Harold Hunter meurt par surdose en 2006. Kids est le premier film pour plusieurs actrices de renom comme Chloë Sevigny et Rosario Dawson.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -725,13 +751,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinction</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nomination et sélection
-Festival de Cannes 1995 : « Sélection officielle »</t>
+          <t>Commentaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des acteurs ont connu une fin tragique comme le laissait présager le film. Ainsi, Justin Pierce, qui joue Casper, se suicide par pendaison en 2000 et Harold Hunter meurt par surdose en 2006. Kids est le premier film pour plusieurs actrices de renom comme Chloë Sevigny et Rosario Dawson.
+</t>
         </is>
       </c>
     </row>
@@ -756,10 +784,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nomination et sélection
+Festival de Cannes 1995 : « Sélection officielle »</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kids</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kids</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Article annexe</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Psychotrope au cinéma et à la télévision</t>
         </is>
